--- a/src/attributions/attributions_ig_traj_439.xlsx
+++ b/src/attributions/attributions_ig_traj_439.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1433977392096296</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01371624507463557</v>
+        <v>-0.08608604857666213</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2707430686247467</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03010116419081511</v>
+        <v>0.004001273688284372</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1491930456613654</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01640258482029933</v>
+        <v>-0.05711919423029652</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2424185176332642</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.03636833054481994</v>
+        <v>0.01439279748655964</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1058,103 +1058,103 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05661916480063441</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0004885327863817676</v>
+        <v>-0.1039938171523975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01705956103150915</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03909773071624769</v>
+        <v>-0.01078891192103048</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05114102174594033</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.244266685350125e-11</v>
+        <v>-3.470842752942556e-11</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.006287610896074329</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.128683559105623e-11</v>
+        <v>-1.992104022987901e-12</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03874418819121223</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.03006103091787413</v>
+        <v>-0.04586640419228727</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.04249581251515201</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03654696569837877</v>
+        <v>0.07080012785383533</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04137011556586018</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0370272043337779</v>
+        <v>-0.1675629633249888</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.09601824582853803</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0823406740793594</v>
+        <v>-0.01667735686670889</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06522474683274734</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.001514729212374373</v>
+        <v>-0.007563276064319164</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.1049887927948767</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00208272495275065</v>
+        <v>0.004555816567386153</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03766186758626987</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002691521422713051</v>
+        <v>0.01855919159624354</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.03870817360056667</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04184735763021797</v>
+        <v>-0.08014909847657475</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04752770842572266</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.03168052151432472</v>
+        <v>-0.06240362818182101</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02238961253711967</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.05227303428689617</v>
+        <v>-0.02819281016782701</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01770377233216207</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.005151342698988647</v>
+        <v>0.03017968464745394</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.04373135439866592</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02138051638444765</v>
+        <v>0.01555492970330826</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01162542077604929</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02040163263502046</v>
+        <v>-0.01683645637809813</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.02927517608387242</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.004159001606518477</v>
+        <v>0.05732951286099017</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.009811323830172495</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0004515529567702702</v>
+        <v>0.04485442205455682</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04610213201090916</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0199879661130125</v>
+        <v>0.007004487323011817</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,76 +1328,76 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01418022115825091</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.02870344634648042</v>
+        <v>0.03663010099907456</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01496390616943506</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0290691430832213</v>
+        <v>0.03101452545121341</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02004882598679147</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01645442933108314</v>
+        <v>-0.02091649284860365</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.04285491153331428</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01784389378994916</v>
+        <v>-0.03731491465691677</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01115526162042232</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.001702307162356149</v>
+        <v>-0.05320440195189079</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.002892739116739693</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.01715053909911452</v>
+        <v>-0.03046001104498006</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.06677632460162342</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.009138687631638019</v>
+        <v>0.04214883444383082</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.09694243965812084</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.0003618747248689784</v>
+        <v>-0.02535434639816732</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,133 +1436,133 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.002726750440995183</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.02889798214807159</v>
+        <v>0.0523474947198154</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.0505857322256974</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.0145470360524402</v>
+        <v>0.02099614862398629</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01945696249661239</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0004810196412817274</v>
+        <v>0.03977438091833668</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03758484801388312</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02147123896158823</v>
+        <v>0.01722156883334725</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.01610018813613591</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.008680389488099443</v>
+        <v>-0.006986232390577869</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.0160849485541347</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.007488082396591</v>
+        <v>0.02278434274117715</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05890893027573976</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01326808686643075</v>
+        <v>-0.009903314644151768</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.01161490472161882</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.004511417914587959</v>
+        <v>-0.00335253712351679</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05390549849006698</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.05550770322638204</v>
+        <v>-0.03276389726031452</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02249852629173317</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
